--- a/Rokomari TestCase/Rokomari Test Case Report.xlsx
+++ b/Rokomari TestCase/Rokomari Test Case Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rokomari_TC_Reg" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="317">
   <si>
     <t>Product Name</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>ScreenShot</t>
+  </si>
+  <si>
+    <t>Home Page</t>
   </si>
 </sst>
 </file>
@@ -1454,44 +1457,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1502,9 +1514,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,12 +1527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1848,123 +1851,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="58"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="2">
         <v>44913</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="2">
         <v>44914</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="68" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="4">
         <f>I3+I4+I5</f>
         <v>28</v>
@@ -2006,7 +2009,7 @@
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -2033,7 +2036,7 @@
       <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="14" t="s">
         <v>177</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="B10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="14" t="s">
         <v>177</v>
       </c>
@@ -2083,7 +2086,7 @@
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="14" t="s">
         <v>177</v>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="B12" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="40" t="s">
         <v>48</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="B13" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14" t="s">
         <v>183</v>
       </c>
@@ -2156,7 +2159,7 @@
       <c r="B14" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="14" t="s">
         <v>188</v>
       </c>
@@ -2180,7 +2183,7 @@
       <c r="B15" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="14" t="s">
         <v>190</v>
       </c>
@@ -2204,7 +2207,7 @@
       <c r="B16" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="32" t="s">
         <v>195</v>
       </c>
@@ -2228,7 +2231,7 @@
       <c r="B17" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="32" t="s">
         <v>198</v>
       </c>
@@ -2252,7 +2255,7 @@
       <c r="B18" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="32" t="s">
         <v>183</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="B19" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="32" t="s">
         <v>183</v>
       </c>
@@ -2300,7 +2303,7 @@
       <c r="B20" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="32" t="s">
         <v>205</v>
       </c>
@@ -2316,7 +2319,7 @@
       <c r="H20" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="79" t="s">
+      <c r="I20" s="57" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2327,7 +2330,7 @@
       <c r="B21" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="44" t="s">
         <v>48</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="H21" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="79" t="s">
+      <c r="I21" s="57" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2354,7 +2357,7 @@
       <c r="B22" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="39" t="s">
         <v>210</v>
       </c>
@@ -2379,7 +2382,7 @@
       <c r="B23" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="39" t="s">
         <v>214</v>
       </c>
@@ -2403,7 +2406,7 @@
       <c r="B24" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="39" t="s">
         <v>214</v>
       </c>
@@ -2419,7 +2422,7 @@
       <c r="H24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="79" t="s">
+      <c r="I24" s="57" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2430,7 +2433,7 @@
       <c r="B25" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="40" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="B26" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="40" t="s">
         <v>113</v>
       </c>
@@ -2478,7 +2481,7 @@
       <c r="B27" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="40" t="s">
         <v>113</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="B28" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="39" t="s">
         <v>48</v>
       </c>
@@ -2527,7 +2530,7 @@
       <c r="B29" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="39" t="s">
         <v>228</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="B30" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="39" t="s">
         <v>228</v>
       </c>
@@ -2707,6 +2710,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C8:C30"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
@@ -2717,13 +2727,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I20" r:id="rId1"/>
@@ -2759,123 +2762,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="19">
         <v>44913</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="19">
         <v>44914</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="76"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="77"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="71" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="21">
         <f>I3+I4+I5</f>
         <v>25</v>
@@ -2917,7 +2920,7 @@
       <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="72" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -2944,7 +2947,7 @@
       <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="14" t="s">
         <v>45</v>
       </c>
@@ -2969,7 +2972,7 @@
       <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="14" t="s">
         <v>54</v>
       </c>
@@ -2994,7 +2997,7 @@
       <c r="B11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="14" t="s">
         <v>55</v>
       </c>
@@ -3019,7 +3022,7 @@
       <c r="B12" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
@@ -3044,7 +3047,7 @@
       <c r="B13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="14" t="s">
         <v>59</v>
       </c>
@@ -3069,7 +3072,7 @@
       <c r="B14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="14" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="B15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="14" t="s">
         <v>70</v>
       </c>
@@ -3119,7 +3122,7 @@
       <c r="B16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="14" t="s">
         <v>73</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="14" t="s">
         <v>96</v>
       </c>
@@ -3169,7 +3172,7 @@
       <c r="B18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3194,7 +3197,7 @@
       <c r="B19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="14" t="s">
         <v>99</v>
       </c>
@@ -3219,7 +3222,7 @@
       <c r="B20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="14" t="s">
         <v>73</v>
       </c>
@@ -3244,7 +3247,7 @@
       <c r="B21" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="29" t="s">
         <v>104</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="B22" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="29" t="s">
         <v>107</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="H22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="56" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3296,7 +3299,7 @@
       <c r="B23" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="29" t="s">
         <v>113</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="B24" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="29" t="s">
         <v>113</v>
       </c>
@@ -3346,7 +3349,7 @@
       <c r="B25" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="32" t="s">
         <v>65</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="B26" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="33" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3399,7 @@
       <c r="B27" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="33" t="s">
         <v>139</v>
       </c>
@@ -3421,7 +3424,7 @@
       <c r="B28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="33" t="s">
         <v>48</v>
       </c>
@@ -3969,6 +3972,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C8:C28"/>
     <mergeCell ref="A6:B6"/>
@@ -3985,7 +3989,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1"/>
@@ -3999,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4017,121 +4020,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="72"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="19">
-        <v>44913</v>
-      </c>
-      <c r="G2" s="75" t="s">
+        <v>44915</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="19">
-        <v>44914</v>
-      </c>
-      <c r="G3" s="76" t="s">
+        <v>44920</v>
+      </c>
+      <c r="G3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="76"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="21">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="77"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="21">
         <f>I3+I4+I5</f>
         <v>17</v>
@@ -4754,13 +4757,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
@@ -4770,6 +4766,13 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
